--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3367.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3367.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.226584905889581</v>
+        <v>0.7644227147102356</v>
       </c>
       <c r="B1">
-        <v>2.593101032679728</v>
+        <v>3.929542779922485</v>
       </c>
       <c r="C1">
-        <v>5.06342665914542</v>
+        <v>2.576885938644409</v>
       </c>
       <c r="D1">
-        <v>2.730270594456699</v>
+        <v>2.151169776916504</v>
       </c>
       <c r="E1">
-        <v>1.174129424177481</v>
+        <v>1.963559627532959</v>
       </c>
     </row>
   </sheetData>
